--- a/Team-Data/2013-14/1-4-2013-14.xlsx
+++ b/Team-Data/2013-14/1-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.529</v>
+        <v>0.545</v>
       </c>
       <c r="H2" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J2" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L2" t="n">
         <v>9.4</v>
@@ -696,28 +763,28 @@
         <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T2" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
@@ -726,22 +793,22 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>103.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -750,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -759,37 +826,37 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
         <v>20</v>
       </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -804,22 +871,22 @@
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-2.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -941,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>25</v>
@@ -956,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
@@ -965,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -977,13 +1044,13 @@
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.364</v>
+        <v>0.344</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O4" t="n">
         <v>19.8</v>
       </c>
       <c r="P4" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1096,19 +1163,19 @@
         <v>4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,10 +1187,10 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1132,13 +1199,13 @@
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,19 +1214,19 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1174,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.429</v>
+        <v>0.412</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="J5" t="n">
         <v>82.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.335</v>
+        <v>0.327</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.726</v>
+        <v>0.729</v>
       </c>
       <c r="R5" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S5" t="n">
         <v>32.6</v>
       </c>
       <c r="T5" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1275,43 +1342,43 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>18.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1320,22 +1387,22 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>21</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1362,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.438</v>
+        <v>0.419</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1424,7 +1491,7 @@
         <v>16.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O6" t="n">
         <v>18.3</v>
@@ -1436,52 +1503,52 @@
         <v>0.776</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
         <v>32.6</v>
       </c>
       <c r="T6" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
         <v>21.5</v>
       </c>
       <c r="V6" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1493,7 +1560,7 @@
         <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1505,7 +1572,7 @@
         <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
@@ -1514,10 +1581,10 @@
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
@@ -1529,10 +1596,10 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.344</v>
       </c>
       <c r="H7" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I7" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="K7" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
         <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
         <v>16.1</v>
@@ -1615,67 +1682,67 @@
         <v>21.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
         <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U7" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V7" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y7" t="n">
         <v>6.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA7" t="n">
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>20</v>
@@ -1684,16 +1751,16 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1705,16 +1772,16 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX7" t="n">
         <v>18</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.7</v>
       </c>
       <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
@@ -1863,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>28</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2051,19 +2118,19 @@
         <v>19</v>
       </c>
       <c r="AO9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP9" t="n">
         <v>8</v>
       </c>
-      <c r="AP9" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2081,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2257,16 +2324,16 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2445,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2454,7 +2521,7 @@
         <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2624,22 +2691,22 @@
         <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L13" t="n">
         <v>7.3</v>
@@ -2698,58 +2765,58 @@
         <v>20.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.785</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>15.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2761,13 +2828,13 @@
         <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2779,40 +2846,40 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
         <v>23</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.639</v>
+        <v>0.657</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2868,46 +2935,46 @@
         <v>38.3</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O14" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.722</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
@@ -2919,31 +2986,31 @@
         <v>21.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2952,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2973,10 +3040,10 @@
         <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2988,19 +3055,19 @@
         <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>-3.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="n">
         <v>12</v>
@@ -3140,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -3149,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3158,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>12</v>
@@ -3170,16 +3237,16 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY15" t="n">
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>-2.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>17</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3337,10 +3404,10 @@
         <v>6</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>16</v>
@@ -3349,19 +3416,19 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.758</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,79 +3481,79 @@
         <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.512</v>
+        <v>0.511</v>
       </c>
       <c r="L17" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N17" t="n">
         <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R17" t="n">
         <v>6.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="U17" t="n">
         <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y17" t="n">
         <v>2.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3507,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,25 +3595,25 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.212</v>
+        <v>0.219</v>
       </c>
       <c r="H18" t="n">
         <v>49.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.425</v>
+        <v>0.422</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
         <v>20.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
         <v>15.6</v>
@@ -3617,52 +3684,52 @@
         <v>20.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S18" t="n">
         <v>30.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.8</v>
+        <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3674,10 +3741,10 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3695,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>16</v>
@@ -3710,16 +3777,16 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
         <v>17</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3760,100 +3827,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>89.09999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.791</v>
+        <v>0.796</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="S19" t="n">
         <v>32</v>
       </c>
       <c r="T19" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U19" t="n">
         <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3862,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
         <v>9</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.469</v>
+        <v>0.484</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>39.4</v>
+        <v>39.7</v>
       </c>
       <c r="J20" t="n">
-        <v>86.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
         <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="S20" t="n">
         <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>8.6</v>
@@ -4005,28 +4072,28 @@
         <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.3</v>
+        <v>103</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4044,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4059,7 +4126,7 @@
         <v>16</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>3</v>
@@ -4068,7 +4135,7 @@
         <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>11</v>
@@ -4083,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -4202,25 +4269,25 @@
         <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4238,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4271,7 +4338,7 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.788</v>
+        <v>0.781</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4330,85 +4397,85 @@
         <v>0.471</v>
       </c>
       <c r="L22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O22" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="P22" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.82</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="T22" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.8</v>
       </c>
       <c r="X22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.6</v>
+        <v>105.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
@@ -4420,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>18</v>
@@ -4438,16 +4505,16 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>27</v>
@@ -4456,10 +4523,10 @@
         <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -4488,160 +4555,160 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.303</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
         <v>7.4</v>
       </c>
       <c r="M23" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N23" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R23" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T23" t="n">
         <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>4.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.9</v>
+        <v>-3.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
         <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.364</v>
+        <v>0.344</v>
       </c>
       <c r="H24" t="n">
         <v>49.1</v>
@@ -4688,55 +4755,55 @@
         <v>39.7</v>
       </c>
       <c r="J24" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.445</v>
       </c>
       <c r="L24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O24" t="n">
         <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
         <v>0.716</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S24" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T24" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" t="n">
         <v>6.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
         <v>20.3</v>
@@ -4745,10 +4812,10 @@
         <v>103.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-7.4</v>
+        <v>-7.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>23</v>
@@ -4769,16 +4836,16 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>16</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>5</v>
@@ -4799,16 +4866,16 @@
         <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,10 +4887,10 @@
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.625</v>
+        <v>0.613</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4876,43 +4943,43 @@
         <v>0.46</v>
       </c>
       <c r="L25" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M25" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.739</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W25" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
@@ -4924,13 +4991,13 @@
         <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.7</v>
+        <v>103.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4945,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>16</v>
@@ -4957,19 +5024,19 @@
         <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
       </c>
       <c r="AP25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4978,13 +5045,13 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4993,7 +5060,7 @@
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5002,10 +5069,10 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -5034,82 +5101,82 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
         <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>87.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="M26" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.399</v>
+        <v>0.405</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
         <v>24.4</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
         <v>5.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5118,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,13 +5200,13 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
@@ -5151,13 +5218,13 @@
         <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.313</v>
+        <v>0.323</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.444</v>
@@ -5243,31 +5310,31 @@
         <v>6.9</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
         <v>0.34</v>
       </c>
       <c r="O27" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T27" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
@@ -5279,28 +5346,28 @@
         <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
         <v>22.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5312,43 +5379,43 @@
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>8</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>9</v>
-      </c>
       <c r="AR27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV27" t="n">
         <v>11</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>12</v>
       </c>
       <c r="AW27" t="n">
         <v>12</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
         <v>14.3</v>
       </c>
       <c r="P28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>42.8</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5464,28 +5531,28 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5512,19 +5579,19 @@
         <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5533,10 +5600,10 @@
         <v>9</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,13 +5612,13 @@
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5676,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5688,10 +5755,10 @@
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>9</v>
@@ -5700,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
@@ -5715,16 +5782,16 @@
         <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>29</v>
       </c>
       <c r="AG30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5864,7 +5931,7 @@
         <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5879,10 +5946,10 @@
         <v>26</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>27</v>
@@ -5894,16 +5961,16 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>18</v>
@@ -5912,10 +5979,10 @@
         <v>16</v>
       </c>
       <c r="BB30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
@@ -6025,10 +6092,10 @@
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6061,28 +6128,28 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-4-2013-14</t>
+          <t>2014-01-04</t>
         </is>
       </c>
     </row>
